--- a/FALCON/ExampleDatasets/Eduati2017/Eduati_nofixed.xlsx
+++ b/FALCON/ExampleDatasets/Eduati2017/Eduati_nofixed.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebastien.delandtshe\Documents\MATLAB\PROJECTS\Eduati\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebastien.delandtshe\Documents\MATLAB\FALCON\FALCON\FALCON\ExampleDatasets\Eduati2017\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Link</t>
   </si>
@@ -42,21 +42,6 @@
   </si>
   <si>
     <t>HL</t>
-  </si>
-  <si>
-    <t>EGFR</t>
-  </si>
-  <si>
-    <t>EGF</t>
-  </si>
-  <si>
-    <t>-&gt;</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>D</t>
   </si>
 </sst>
 </file>
@@ -378,7 +363,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="A2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -407,25 +392,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="str">
-        <f t="shared" ref="D2" si="0">A2&amp;B2&amp;C2</f>
-        <v>EGF-&gt;EGFR</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
